--- a/output/cheonan_eupmyeondong_aed_pop.xlsx
+++ b/output/cheonan_eupmyeondong_aed_pop.xlsx
@@ -530,13 +530,13 @@
         <v>966</v>
       </c>
       <c r="F3" t="n">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="G3" t="n">
-        <v>440.9448818897638</v>
+        <v>1375.328083989501</v>
       </c>
       <c r="H3" t="n">
-        <v>86.95652173913044</v>
+        <v>271.2215320910973</v>
       </c>
     </row>
     <row r="4">
@@ -690,13 +690,13 @@
         <v>1648</v>
       </c>
       <c r="F8" t="n">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>449.793338195964</v>
+        <v>17.01920739119864</v>
       </c>
       <c r="H8" t="n">
-        <v>112.2572815533981</v>
+        <v>4.247572815533981</v>
       </c>
     </row>
     <row r="9">

--- a/output/cheonan_eupmyeondong_aed_pop.xlsx
+++ b/output/cheonan_eupmyeondong_aed_pop.xlsx
@@ -530,13 +530,13 @@
         <v>966</v>
       </c>
       <c r="F3" t="n">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="G3" t="n">
-        <v>440.9448818897638</v>
+        <v>1364.829396325459</v>
       </c>
       <c r="H3" t="n">
-        <v>86.95652173913044</v>
+        <v>269.1511387163561</v>
       </c>
     </row>
     <row r="4">
@@ -690,13 +690,13 @@
         <v>1648</v>
       </c>
       <c r="F8" t="n">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>449.793338195964</v>
+        <v>21.88183807439825</v>
       </c>
       <c r="H8" t="n">
-        <v>112.2572815533981</v>
+        <v>5.461165048543689</v>
       </c>
     </row>
     <row r="9">

--- a/output/cheonan_eupmyeondong_aed_pop.xlsx
+++ b/output/cheonan_eupmyeondong_aed_pop.xlsx
@@ -530,13 +530,13 @@
         <v>966</v>
       </c>
       <c r="F3" t="n">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="G3" t="n">
-        <v>1375.328083989501</v>
+        <v>451.4435695538058</v>
       </c>
       <c r="H3" t="n">
-        <v>271.2215320910973</v>
+        <v>89.02691511387164</v>
       </c>
     </row>
     <row r="4">
@@ -690,13 +690,13 @@
         <v>1648</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="G8" t="n">
-        <v>17.01920739119864</v>
+        <v>444.9307075127644</v>
       </c>
       <c r="H8" t="n">
-        <v>4.247572815533981</v>
+        <v>111.0436893203884</v>
       </c>
     </row>
     <row r="9">
